--- a/analysis_output.xlsx
+++ b/analysis_output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>image_link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>link</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lot_description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>price_per_sqm</t>
         </is>
@@ -465,169 +480,289 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Rizal</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>1477300</v>
+        <v>1722400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6251</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18466.25</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-13%20135811.png</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5403</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Brgy. Bagumbayan, Teresa Rizal</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>27780.64516129032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Misamis Oriental</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>1598850</v>
+        <v>4413000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6310</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>15083.49056603774</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_61.PNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6050</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Kauswagan, Cagayan de Oro City, Misamis Oriental</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>44575.75757575758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quezon</t>
+          <t>Cavite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C4" t="n">
-        <v>4114250</v>
+        <v>8757470</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6671</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>34285.41666666666</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture1_22.PNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6235</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1 At The Island Park, Barangay Paliparan Iii, Dasmariñas City, Province Of Cavite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>42511.99029126213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cavite</t>
+          <t>Laguna</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>4919000</v>
+        <v>1477300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/3447</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>7998.373983739837</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_43.PNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6254</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barangay Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>18466.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Misamis Oriental</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>2819600</v>
+        <v>1477300</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/5340</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>13300</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_64.PNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6275</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brgy. Barandal, Calamba City Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>18466.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rizal</t>
+          <t>Laguna</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>1722400</v>
+        <v>2593440</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/5403</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>27780.64516129032</v>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/3_8.PNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3457</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay San Pablo Sur, Sta. Cruz, Laguna</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>32017.77777777778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Davao</t>
+          <t>Bulacan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
-        <v>12667000</v>
+        <v>1423000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/5583</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>38384.84848484849</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_16.PNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5963</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BRGY. ABANGAN NORTE, MARILAO, BULACAN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7905.555555555556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NCR</t>
+          <t>Laguna</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
-        <v>1049000</v>
+        <v>1645600</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6030</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>20980</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_37.PNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6247</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Brgy Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>14186.20689655172</v>
       </c>
     </row>
     <row r="10">
@@ -637,39 +772,69 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>617</v>
       </c>
       <c r="C10" t="n">
-        <v>1701700</v>
+        <v>11020300</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6225</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>13294.53125</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-23%20140634.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5708</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SUBDIVISION, BRGY. TUBIGAN, BIÑAN, PROVINCE OF LAGUNA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>17861.10210696921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Quezon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C11" t="n">
-        <v>1496000</v>
+        <v>4114250</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6245</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>17809.52380952381</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_21.PNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6671</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Subdivision, Brgy. Kanlurang Mayao, Lucena City, Quezon Province</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>34285.41666666666</v>
       </c>
     </row>
     <row r="12">
@@ -686,53 +851,3618 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_52.PNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>https://www.unionbankph.com/foreclosed-properties/6268</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Brgy. Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>16288.73684210526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>NCR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1157800</v>
+        <v>4914000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/7064</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6578.409090909091</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_6.PNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6639</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Barangay 183, Pasay City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>158516.1290322581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Iloilo</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1157800</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-09/Screenshot%202025-09-18%20173855.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/7064</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Subdivision, Pulo, Maestra Vita, Oton, Iloilo City</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6578.409090909091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4307000</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-11/6_6.PNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3303</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Building East, Azure Urban Resort, Barangay Marcelo Green, Parañaque City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>153821.4285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Cavite</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>717</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>5734000</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/3439</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_9.PNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3440</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7997.21059972106</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>544</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17311000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-10/Capture_5.PNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5080</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Pulang Lupa Dos, Las Piñas City, Metropolitan Manila</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>31821.69117647059</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5969000</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-10%20134831.png</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5379</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Barangay Santolan, City of Pasig"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>93265.625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davao</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5632000</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-16%20144431.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5505</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Building Camella Northpoint Condominium Complex Brgy. Bajada, Davao City</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>108307.6923076923</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7943000</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-03/Screenshot%202025-03-15%20135552.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5856</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SUBDIVISION, BRGY. TALON DOS, LAS PIÑAS CITY</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>88255.55555555556</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>169</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6149000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_9.PNG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6215</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 3A, Barangay Lantic, Carmona, Cavite</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>36384.61538461538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>103</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1584830</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_25.PNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6240</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Barangay Majada Labas And Phase Ii, Barangay Barandal, Calamba City, Laguna</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>15386.69902912621</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>128</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1701700</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_69.PNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6279</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Brgy. Barandal, Calamba City Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>13294.53125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>107</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1603530</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_84.PNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6299</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Barangay Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>14986.26168224299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>180</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_103.PNG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6317</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Vicente, Municipality Of San Pedro, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>21666.66666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5014240</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_29.PNG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6678</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Building 3, Maui Oasis, Anonas Street, Barangay 630, Zone 63, Sta. Mesa, Manila City, Me</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>111427.5555555556</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3755000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-11/8.PNG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3268</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Barangay Buhay na Tubig, Imus City, Cavite</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>56893.93939393939</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>845</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6758000</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A.PNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3432</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7997.633136094674</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11505000</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-02/3_4.PNG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/4325</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Barangay Fort Bonifacio, Taguig City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>387</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5147100</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20163216.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5368</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rizal</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>182</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3424000</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-16%20141352.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5497</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Brgy. San Roque, Antipolo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>18813.18681318681</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4275000</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-03/Screenshot%202025-03-13%20103615.png</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5836</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Barangay Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>142500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5633830</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_8.PNG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6214</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Barangay Poblacion, Makati City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>208660.3703703704</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>88</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1514700</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_30.PNG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6239</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Barangay Barandal, Canlubang, Calamba City, Laguna</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>17212.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>69</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2686000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_101.PNG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6315</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Building 15, Unit 15-B-2, Urci Townhomes, Brgy Pamplona Tres, Las Piñas City, Metropolitan Manila</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>38927.53623188406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>54</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4812000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_27.PNG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6677</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Barangay 696, Zone 76, Manila</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>89111.11111111111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Batangas</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>449</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6735000</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-10/PTE%201.PNG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3219</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay San Gregorio, Laurel, Batangas</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7020000</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/3.1_1.PNG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3428</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Barangay Tandang Sora, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Town House</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>140400</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>41</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3847500</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-02/5.PNG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/4300</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Brgy. Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>93841.46341463414</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>374</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4974200</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20154646.png</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5361</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>29</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3625000</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-15%20101625_1.png</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5449</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Brgy. Katipunan, Quezon City</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bulacan</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-23%20142033.png</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5711</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BARANGAY MATUNGAO, MUNICIPALITY OF BULACAN, PROVINCE OF BULACAN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>65</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5720000</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_64.PNG</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6054</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BRGY. PULANG LUPA DOS, LAS PINAS CITY</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>26</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4144000</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_26.PNG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6676</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Barangay Hulo, Mandaluyong City, Metro</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>159384.6153846154</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Isabela</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-10/ATTABAN%201.PNG</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3210</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Brgy. Rizal, Santiago City, Isabela</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>63</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8661000</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/7.PNG</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3423</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Building 2 (Zurich Building), Aurora Boulevard corner Balete Drive, Barangay Kaunlaran, New Manila District, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>137476.1904761905</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4977050</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-02/4.4.PNG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/4299</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Barangay Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>155532.8125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>196</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2606800</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20154149.png</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5359</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3186000</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-15%20101625.png</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5448</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Brgy. Katipunan, Quezon City</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>99</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4105630</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_20.PNG</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6670</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Barangay San Jose, San Pablo City, Laguna</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Town House</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>41471.0101010101</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>615</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4919000</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_17.PNG</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3447</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7998.373983739837</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>212</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2819600</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20103433.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5340</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Davao</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12667000</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Capture_25.PNG</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5583</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>BRGY MATINA, DAVAO CITY</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>38384.84848484849</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>50</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_50.PNG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6030</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>BRGY. TALON TREA, LAS PINAS CITY</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Town House</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>20980</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>98</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1561450</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_14.PNG</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6222</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Brgy. Majada, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>15933.16326530612</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>182</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2675400</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20155251.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5363</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Subdivision, Trails 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-15%20133543.png</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5454</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Barangay Kaunlaran, Quezon City</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3549660</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-03/Screenshot%202025-03-12%20170136.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5827</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>110926.875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nueva Ecija</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>60</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_70.PNG</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6059</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BRGY. STO. CRISTO SUR GAPAN CITY, NUEVA ECIJA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>49833.33333333334</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4799000</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_23.PNG</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6673</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Barangay Hulo, Mandaluyong City, Metro</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>149968.75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Rizal</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>280</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8400000</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-01/3.1_4.PNG</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3369</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Subdivision, Timberland Heights, Barangay Gitnang Bayan Ii, (Ampid), San Mateo, Rizal</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5092000</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-06/Capture_26.PNG</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/4822</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Barangay Socorro, Cubao District, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>127300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>289</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6012000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20161049.png</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5366</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>20802.76816608997</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>138</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5561000</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-16%20134250.png</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5491</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Barangay Bagtas, Municipality Of Tanza, Province Of Cavite"</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>40297.10144927536</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>62</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7775000</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-03/Screenshot%202025-03-13%20102901.png</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5835</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Barangay Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>125403.2258064516</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>104</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1589500</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_6.PNG</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6212</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Barangay Majada Labas, Calamba City, Laguna</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>15283.65384615385</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>26</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5051000</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_25.PNG</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6675</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Brgy. Hulo, Mandaluyong</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>194269.2307692308</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>68</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8508000</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/6.3.PNG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3422</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Barangay Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>125117.6470588235</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>104</v>
+      </c>
+      <c r="C69" t="n">
+        <v>26107600</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2024-02/2.PNG</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/4286</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Brgy. Poblacion, Makati City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>251034.6153846154</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>135</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1795500</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20151809.png</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5358</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>23</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3634000</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-15%20091951.png</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5445</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Brgy. Ugong Pasig City</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>37</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3015630</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/49.PNG</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5699</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BARANGAY SUCAT, MUNTINLUPA CITY, METROPOLITAN MANILA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>81503.51351351352</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Misamis Oriental</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>107</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_59.PNG</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6048</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Kauswagan, Cagayan de Oro City, Misamis Oriental</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>41121.49532710281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>86</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1505350</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_38.PNG</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6248</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Barangay Majada Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>17504.06976744186</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>83</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1491330</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_55.PNG</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6271</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Barangay Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>17967.83132530121</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>145</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1781180</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_93.PNG</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6308</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Barangay Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>12284</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Misamis Oriental</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>44</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1736000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_18.PNG</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6668</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Subdivision, Gran Europa, Brgy. Lumbia, Cagayan De Oro City</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>39454.54545454546</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rizal</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>42</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1463000</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-11/12.PNG</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3318</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Jibao-an, Pavia, Iloilo</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Town House</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>34833.33333333334</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>709</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5670000</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_15.PNG</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3443</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7997.179125528914</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Batangas</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>186</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9114000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20090133.png</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5330</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Niuyugan, Laurel, Batangas</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bulacan</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>66</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2267100</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-10%20155007.png</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5396</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Brgy. Kaypian San Jose Del Monte, Bulacan</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>34350</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Davao</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Capture_15.PNG</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5671</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BRGY. STO. NIÑO, TUGBOK DISTRICT, DAVAO CITY</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>138</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6031000</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture_58.PNG</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6047</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BRGY. BAGTAS, TANZA, CAVITE</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>43702.89855072464</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cebu</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>57</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3462230</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_14.PNG</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6659</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Building Brgy. Mabolo Cebu City</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>60740.87719298246</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>81</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1195430</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-09/Capture_39.PNG</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/7097</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay San Pablo Sur, Sta. Cruz, Laguna</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>14758.3950617284</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>62</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8680000</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-11/4_10.PNG</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3306</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Barangay Bagumbayan, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>716</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5726000</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_13.PNG</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3442</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7997.206703910614</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Batangas</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>219</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10731000</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20085723.png</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5329</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Niuyugan, Laurel, Batangas</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>83</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8162590</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-10%20151556.png</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5394</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Ususan, Taguig City</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>98344.4578313253</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Negros Occidental</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>132</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5498000</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-16%20150214.png</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5512</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Candau-ay Dumaguete City, Negros Oriental</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>41651.51515151515</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>53</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1138000</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-04/Capture.PNG</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5945</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Barangay Talon Tres, Las Piñas City, Metropolitan Manila</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>21471.69811320755</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>13</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3034000</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-07/Capture_56.PNG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6513</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Barangay Fairview, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>233384.6153846154</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>139</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16602000</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-11/2.2_5.PNG</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3305</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Barangay San Antonio, Pasig City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>119438.8489208633</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Davao</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>48</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3984000</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-16%20144912.png</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5507</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Building Camella Northpoint Condominium Complex, Davao City</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>56</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3177140</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_10.PNG</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6216</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Barangay Sucat, Muntinlupa City, Metropolitan Manila</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>56734.64285714286</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>110</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1617550</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_48.PNG</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6259</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Brgy Barandal, Calamba City, Province Of Laguna</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Negros Occidental</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>44</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5679700</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_104.PNG</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6318</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Barangay Poblacion, Makati City M.M.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>129084.0909090909</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>27</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4947000</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_34.PNG</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6683</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Barangay Fairview, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>183222.2222222222</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>718</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5742000</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_1.PNG</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3436</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7997.214484679665</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>180</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2646000</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20155513.png</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5364</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Subdivision, Trails 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>36</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4140000</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-15%20135017.png</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5455</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Barangay Katipunan, Quezon City</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>58</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4255000</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-03/Screenshot%202025-03-13%20094513.png</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5830</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>73362.06896551725</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>54</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-06/Capture_2.PNG</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6208</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Barangay Bucandala Iv, Imus City, Cavite</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>27</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4364000</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-08/Capture_24.PNG</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/6674</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Barangay Hulo, Manda</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>161629.6296296296</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>29</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3438830</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-01/5_4.PNG</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3388</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Building 2, Aurora corner Balete Drive, Barangay Kaunlaran, Quezon City</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>118580.3448275862</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>23</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2705000</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/4_9.PNG</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3458</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Barangay Sto. Cristo, Quezon City, Metro Manila</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>117608.6956521739</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>159</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2114700</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20151756.png</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5357</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>21</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2717000</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-14%20102149.png</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5428</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Barangay 396, Zone 41 (Sampaloc), Manila City</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Condominium</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>129380.9523809524</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>289</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3843700</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-09/CYPRESS%201.PNG</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3178</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Iloilo</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>99</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3694000</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-10/GUAVA.PNG</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3148</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Subdivision, Brgy. Abilay Norte, Oton, Iloilo City</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>37313.13131313131</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>195</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2593500</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-07/812.PNG</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/2741</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Iloilo</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>102</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2142000</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/sites/default/files/2022-10/CHUCK.PNG</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3153</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Jibao-An, Pavia, Iloilo City</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>House and Lot</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>21000</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +4476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,45 +4502,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>image_link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>link</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lot_description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>price_per_sqm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>value_score</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>size_score</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>location_score</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>price_fmt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>price_per_sqm_fmt</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lot_fmt</t>
         </is>
@@ -823,44 +4568,59 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C2" t="n">
-        <v>5734000</v>
+        <v>5742000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/3439</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7997.21059972106</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9487926834057187</v>
-      </c>
-      <c r="G2" t="n">
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_1.PNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3436</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7997.214484679665</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9937444154771794</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.7743963417028593</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>₱5,734,000</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0.7968722077385897</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>₱5,742,000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>₱7,997/sqm</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>717.00 sqm</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>718.00 sqm</t>
         </is>
       </c>
     </row>
@@ -871,188 +4631,248 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615</v>
+        <v>717</v>
       </c>
       <c r="C3" t="n">
-        <v>4919000</v>
+        <v>5734000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/3447</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>7998.373983739837</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.94875069460503</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8470764617691154</v>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_9.PNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3440</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H3" t="n">
+        <v>7997.21059972106</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9937444326061577</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9985815602836879</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.7284982858332496</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>₱4,919,000</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>₱7,998/sqm</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>615.00 sqm</t>
+      <c r="L3" t="n">
+        <v>0.7964466843881852</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>₱5,734,000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>₱7,997/sqm</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>717.00 sqm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Cavite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176</v>
+        <v>716</v>
       </c>
       <c r="C4" t="n">
-        <v>1157800</v>
+        <v>5726000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/7064</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6578.409090909091</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1889055472263868</v>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_13.PNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3442</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H4" t="n">
+        <v>7997.206703910614</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9937444497829825</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9971631205673759</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.556671664167916</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>₱1,157,800</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>₱6,578/sqm</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>176.00 sqm</t>
+      <c r="L4" t="n">
+        <v>0.7960211610617041</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>₱5,726,000</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>₱7,997/sqm</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>716.00 sqm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Cavite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212</v>
+        <v>709</v>
       </c>
       <c r="C5" t="n">
-        <v>2819600</v>
+        <v>5670000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/5340</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>13300</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7574046605100722</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2428785607196402</v>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_15.PNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3443</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H5" t="n">
+        <v>7997.179125528914</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.993744571377458</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9872340425531915</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.4515658984709281</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>₱2,819,600</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>₱13,300/sqm</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>212.00 sqm</t>
+      <c r="L5" t="n">
+        <v>0.7930424984546864</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>₱5,670,000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>₱7,997/sqm</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>709.00 sqm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Cavite</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128</v>
+        <v>615</v>
       </c>
       <c r="C6" t="n">
-        <v>1701700</v>
+        <v>4919000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6225</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>13294.53125</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7576020383750418</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1169415292353823</v>
+          <t>https://www.unionbankph.com/sites/default/files/2023-02/A_17.PNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3447</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay Tanauan, Tanza, Cavite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H6" t="n">
+        <v>7998.373983739837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9937393031873566</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8539007092198582</v>
+      </c>
+      <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.4138834779581356</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>₱1,701,700</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>₱13,295/sqm</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>128.00 sqm</t>
+      <c r="L6" t="n">
+        <v>0.7530398643596357</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>₱4,919,000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>₱7,998/sqm</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>615.00 sqm</t>
         </is>
       </c>
     </row>
@@ -1063,44 +4883,59 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>387</v>
       </c>
       <c r="C7" t="n">
-        <v>1598850</v>
+        <v>5147100</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6310</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15083.49056603774</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6930350038027845</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.08395802098950525</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20163216.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5368</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H7" t="n">
+        <v>13300</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9703641667530619</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5304964539007092</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.3717049081982438</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>₱1,598,850</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>₱15,083/sqm</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>106.00 sqm</t>
+      <c r="L7" t="n">
+        <v>0.6443310195467438</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>₱5,147,100</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>₱13,300/sqm</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>387.00 sqm</t>
         </is>
       </c>
     </row>
@@ -1111,44 +4946,59 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="C8" t="n">
-        <v>1547430</v>
+        <v>4974200</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6268</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>16288.73684210526</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6495353125145031</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06746626686656672</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20154646.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5361</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Subdivision, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H8" t="n">
+        <v>13300</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9703641667530619</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5120567375886524</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.3450075363172216</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>₱1,547,430</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>₱16,289/sqm</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>95.00 sqm</t>
+      <c r="L8" t="n">
+        <v>0.6387991046531267</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>₱4,974,200</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>₱13,300/sqm</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>374.00 sqm</t>
         </is>
       </c>
     </row>
@@ -1159,44 +5009,59 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="C9" t="n">
-        <v>1496000</v>
+        <v>3843700</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6245</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>17809.52380952381</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5946471415974399</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.05097451274362819</v>
+          <t>https://www.unionbankph.com/sites/default/files/2022-09/CYPRESS%201.PNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/3178</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H9" t="n">
+        <v>13300</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9703641667530619</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3914893617021277</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.3126159246218084</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>₱1,496,000</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>₱17,810/sqm</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>84.00 sqm</t>
+      <c r="L9" t="n">
+        <v>0.6026288918871693</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>₱3,843,700</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>₱13,300/sqm</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>289.00 sqm</t>
         </is>
       </c>
     </row>
@@ -1207,92 +5072,122 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C10" t="n">
-        <v>1477300</v>
+        <v>2819600</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6251</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>18466.25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5709446111570615</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04497751124437781</v>
+          <t>https://www.unionbankph.com/sites/default/files/2025-01/Screenshot%202025-01-09%20103433.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/5340</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Subdivision, Phase 1, Barangay San Antonio, San Pedro, Laguna</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
       </c>
       <c r="H10" t="n">
+        <v>13300</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9703641667530619</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2822695035460993</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.2989655589518441</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>₱1,477,300</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>₱18,466/sqm</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>80.00 sqm</t>
+      <c r="L10" t="n">
+        <v>0.5698629344403607</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>₱2,819,600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>₱13,300/sqm</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>212.00 sqm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NCR</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C11" t="n">
-        <v>1049000</v>
+        <v>1157800</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.unionbankph.com/foreclosed-properties/6030</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>20980</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.480218465681885</v>
-      </c>
-      <c r="G11" t="n">
+          <t>https://www.unionbankph.com/sites/default/files/2025-09/Screenshot%202025-09-18%20173855.png</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.unionbankph.com/foreclosed-properties/7064</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Subdivision, Pulo, Maestra Vita, Oton, Iloilo City</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Vacant Lot</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6578.409090909091</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2312056737588652</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2401092328409425</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>₱1,049,000</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>₱20,980/sqm</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>50.00 sqm</t>
+      <c r="L11" t="n">
+        <v>0.5693617021276596</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>₱1,157,800</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>₱6,578/sqm</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>176.00 sqm</t>
         </is>
       </c>
     </row>
@@ -1307,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,77 +5240,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Laguna</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>6578.409090909091</v>
+        <v>14758.3950617284</v>
       </c>
       <c r="D2" t="n">
-        <v>1157800</v>
+        <v>1795500</v>
       </c>
       <c r="E2" t="n">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cavite</t>
+          <t>Isabela</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7997.792291730449</v>
+        <v>16900</v>
       </c>
       <c r="D3" t="n">
-        <v>5326500</v>
+        <v>1690000</v>
       </c>
       <c r="E3" t="n">
-        <v>666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15686.1137040715</v>
+        <v>21000</v>
       </c>
       <c r="D4" t="n">
-        <v>1573140</v>
+        <v>2142000</v>
       </c>
       <c r="E4" t="n">
-        <v>100.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCR</t>
+          <t>Cavite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>20980</v>
+        <v>22191.49468417761</v>
       </c>
       <c r="D5" t="n">
-        <v>1049000</v>
+        <v>5730000</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>410.5</v>
       </c>
     </row>
     <row r="6">
@@ -1425,16 +5320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>27780.64516129032</v>
+        <v>28890.32258064516</v>
       </c>
       <c r="D6" t="n">
-        <v>1722400</v>
+        <v>2573200</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1459,20 +5354,153 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Bulacan</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34350</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2267100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Misamis Oriental</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40288.02039082413</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3068000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Batangas</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9114000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nueva Ecija</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49833.33333333334</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Davao</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60692.42424242424</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4808000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cebu</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>38384.84848484849</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12667000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>330</v>
+      <c r="C13" t="n">
+        <v>60740.87719298246</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3462230</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Negros Occidental</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>85367.80303030304</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5588850</v>
+      </c>
+      <c r="E14" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NCR</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>43</v>
+      </c>
+      <c r="C15" t="n">
+        <v>125117.6470588235</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4799000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
